--- a/biology/Zoologie/Eleutherodactylus/Eleutherodactylus.xlsx
+++ b/biology/Zoologie/Eleutherodactylus/Eleutherodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus est un genre d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus est un genre d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 191 espèces de ce genre se rencontrent dans le sud des États-Unis, au Mexique, au Belize, au Guatemala et aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 191 espèces de ce genre se rencontrent dans le sud des États-Unis, au Mexique, au Belize, au Guatemala et aux Antilles.
 Des espèces ont été introduites en Floride, en Louisiane et à Hawaii. Dans cette dernière île, elles sont considérées comme espèces invasives.
 Parmi la faune de Porto Rico ces petites grenouilles de 15 à 80 mm, particulièrement bruyantes, se retrouvent dans les zones forestières de toute l'île et même en ville, mais leur écosystème de prédilection demeure la forêt nationale d'El Yunque. Il existe environ seize espèces distinctes sur l'île de Porto Rico dont treize dans El Yunque.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre regroupe de petites grenouilles arboricole.
 Elles ont la particularité de ne pas avoir de stade têtard et de sortir de l'œuf directement conformées.
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (18 juin 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (18 juin 2015) :
 Eleutherodactylus abbotti Cochran, 1923
 Eleutherodactylus acmonis Schwartz, 1960
 Eleutherodactylus adelus Díaz, Cadiz &amp; Hedges, 2003
@@ -798,9 +816,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec eleutheros, libre, et du grec dactylos, doigt ou orteil, en référence à l'absence de palmure entre les doigts et orteils[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec eleutheros, libre, et du grec dactylos, doigt ou orteil, en référence à l'absence de palmure entre les doigts et orteils.
 </t>
         </is>
       </c>
@@ -829,9 +849,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été réduit des trois-quarts de ses 700 espèces qui vivent en Amérique du Sud, elles sont maintenant dans les familles des Craugastoridae ou des Brachycephalidae[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été réduit des trois-quarts de ses 700 espèces qui vivent en Amérique du Sud, elles sont maintenant dans les familles des Craugastoridae ou des Brachycephalidae.
 </t>
         </is>
       </c>
@@ -860,7 +882,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1841 : Erpétologie générale ou Histoire naturelle complète des reptiles, vol. 8, p. 1-792 (texte intégral).</t>
         </is>
